--- a/google_maps_businesses.xlsx
+++ b/google_maps_businesses.xlsx
@@ -1,43 +1,658 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Businesses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Business Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Lazy Dog Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>American restaurant</t>
+  </si>
+  <si>
+    <t>1851 N Central Expy, Allen, TX 75013, United States</t>
+  </si>
+  <si>
+    <t>+1 469-393-4119</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://lazydogrestaurants.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LazyDogRestaurants</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lazydogrestaurants/</t>
+  </si>
+  <si>
+    <t>Roman Cucina</t>
+  </si>
+  <si>
+    <t>Italian Restaurant</t>
+  </si>
+  <si>
+    <t>201 E Bethany Dr #1, Allen, TX 75002, United States</t>
+  </si>
+  <si>
+    <t>+1 214-383-6677</t>
+  </si>
+  <si>
+    <t>https://romancucina.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Roman-Cucina-469613969811464/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/romancucina</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/best/italian</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>1851 N Central Expy</t>
+  </si>
+  <si>
+    <t>Talia's Cafe</t>
+  </si>
+  <si>
+    <t>Brunch restaurant</t>
+  </si>
+  <si>
+    <t>1255 W Exchange Pkwy Ste. 160, Allen, TX 75013, United States</t>
+  </si>
+  <si>
+    <t>+1 214-785-7820</t>
+  </si>
+  <si>
+    <t>TwoRows Classic Grill</t>
+  </si>
+  <si>
+    <t>Bar &amp; grill</t>
+  </si>
+  <si>
+    <t>711 Central Expy S, Allen, TX 75013, United States</t>
+  </si>
+  <si>
+    <t>+1 972-396-8670</t>
+  </si>
+  <si>
+    <t>catering@tworows.com</t>
+  </si>
+  <si>
+    <t>https://tworows.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TwoRows</t>
+  </si>
+  <si>
+    <t>https://instagram.com/tworows</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TwoRowsGrill</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/tworowsclassicgrill</t>
+  </si>
+  <si>
+    <t>Kelly's at the Village</t>
+  </si>
+  <si>
+    <t>Southern restaurant (US)</t>
+  </si>
+  <si>
+    <t>190 E Stacy Rd Suite 1204, Allen, TX 75002, United States</t>
+  </si>
+  <si>
+    <t>+1 972-912-3020</t>
+  </si>
+  <si>
+    <t>https://kellysatthevillage.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KellysAtTheVillage</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/215422161/kellys-at-the-village/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KellysVillage</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?time_continue=10&amp;v=cj_FuLPxY2I&amp;feature=emb_title</t>
+  </si>
+  <si>
+    <t>Sunview Cafe</t>
+  </si>
+  <si>
+    <t>939 W Stacy Rd #100, Allen, TX 75013, United States</t>
+  </si>
+  <si>
+    <t>+1 972-954-7400</t>
+  </si>
+  <si>
+    <t>https://sunviewcafe.com</t>
+  </si>
+  <si>
+    <t>Allen Cafe</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>302 E Main St, Allen, TX 75002, United States</t>
+  </si>
+  <si>
+    <t>+1 972-747-0151</t>
+  </si>
+  <si>
+    <t>https://allen-cafe.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AllenCafe/reviews/</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/writeareview/biz/rwSx8Y1Us4zOCwaDDRa6KA?return_url=%2Fbiz%2FrwSx8Y1Us4zOCwaDDRa6KA</t>
+  </si>
+  <si>
+    <t>Brio Italian Grille</t>
+  </si>
+  <si>
+    <t>Italian restaurant</t>
+  </si>
+  <si>
+    <t>810 Central Expy S, Allen, TX 75013, United States</t>
+  </si>
+  <si>
+    <t>+1 214-884-3920</t>
+  </si>
+  <si>
+    <t>https://brioitalian.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/brioitalian</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/brioitaliangrille/</t>
+  </si>
+  <si>
+    <t>https://x.com/BrioItalian/</t>
+  </si>
+  <si>
+    <t>Número 28 Allen Ristorante Pizzeria</t>
+  </si>
+  <si>
+    <t>Pizza restaurant</t>
+  </si>
+  <si>
+    <t>190 E Stacy Rd #1404, Allen, TX 75002, United States</t>
+  </si>
+  <si>
+    <t>+1 972-678-0384</t>
+  </si>
+  <si>
+    <t>numero28allen@gmail.com</t>
+  </si>
+  <si>
+    <t>https://numero28allen.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/106171467886843</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/numero28allen</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/biz/numero-28-allen-ristorante-pizzeria-allen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +661,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,133 +1267,558 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="50" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="50" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Business Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Business Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lazy Dog Restaurant &amp; Bar</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>American</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1851 N Central Expy</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lazy Dog Restaurant &amp; Bar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>American restaurant</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1851 N Central Expy, Allen, TX 75013, United States</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+1 469-393-4119</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>lazydogrestaurants.com</t>
-        </is>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Roman Cucina</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Italian restaurant</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>201 E Bethany Dr #1, Allen, TX 75002, United States</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+1 214-383-6677</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>romancucina.com</t>
-        </is>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="catering@tworows.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/google_maps_businesses.xlsx
+++ b/google_maps_businesses.xlsx
@@ -433,19 +433,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
-    <col width="45" customWidth="1" min="7" max="7"/>
-    <col width="43" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="50" customWidth="1" min="13" max="13"/>
+    <col width="42" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
   </cols>
@@ -530,134 +530,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Allen Cafe</t>
+          <t>Pera Soho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cafe</t>
+          <t>Mediterranean restaurant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>302 E Main St, Allen, TX 75002</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+1 972-747-0151</t>
-        </is>
-      </c>
+          <t>54 Thompson Street</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://allen-cafe.com</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/AllenCafe/reviews/</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://www.yelp.com/writeareview/biz/rwSx8Y1Us4zOCwaDDRa6KA?return_url=%2Fbiz%2FrwSx8Y1Us4zOCwaDDRa6KA</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allen Cafe</t>
+          <t>Pera Soho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cafe</t>
+          <t>Mediterranean restaurant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>302 E Main St, Allen, TX 75002, United States</t>
+          <t>54 Thompson Street, Broome St, New York, NY 10012, United States</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 972-747-0151</t>
+          <t>+12128786305</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://allen-cafe.com</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/AllenCafe/reviews/</t>
-        </is>
-      </c>
+          <t>https://pera-soho.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://www.yelp.com/writeareview/biz/rwSx8Y1Us4zOCwaDDRa6KA?return_url=%2Fbiz%2FrwSx8Y1Us4zOCwaDDRa6KA</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sayfani Yemeni Coffee House</t>
+          <t>Lagos TSQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coffee shop</t>
+          <t>African restaurant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1201 W McDermott Dr #102, Allen, TX 75013, United States</t>
+          <t>727 7th Avenue, New York, NY 10019</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1 469-656-1926</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sayfanicoffeeco@gmail.com</t>
-        </is>
-      </c>
+          <t>2122810500</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://sayfanicoffeehouse.com</t>
+          <t>https://lagosnyc.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/sayfanicoffee</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://www.instagram.com/lagosnyc/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://images.getbento.com/accounts/7205f4577fce084171c71ca7a4b9c2ea/media/images/42635LagosLogo.png?w=1200&amp;fit=fill&amp;auto=compress,format&amp;cs=origin&amp;h=600&amp;bg=000&amp;pad=100</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lagosnyc?lang=en</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -665,32 +645,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Talia's Cafe</t>
+          <t>Lagos TSQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brunch restaurant</t>
+          <t>African restaurant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1255 W Exchange Pkwy Ste. 160, Allen, TX 75013, United States</t>
+          <t>727 7th Ave, New York, NY 10019, United States</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+1 214-785-7820</t>
+          <t>+12122810500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://lagosnyc.com</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lagosnyc/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://images.getbento.com/accounts/7205f4577fce084171c71ca7a4b9c2ea/media/images/42635LagosLogo.png?w=1200&amp;fit=fill&amp;auto=compress,format&amp;cs=origin&amp;h=600&amp;bg=000&amp;pad=100</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lagosnyc?lang=en</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -698,28 +694,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sunview Cafe</t>
+          <t>Boucherie Union Square</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>American restaurant</t>
+          <t>French restaurant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>939 W Stacy Rd #100, Allen, TX 75013, United States</t>
+          <t>225 Park Ave S, New York, NY 10003, United States</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+1 972-954-7400</t>
+          <t>+12123530200</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://sunviewcafe.com</t>
+          <t>https://boucherieus.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -735,44 +731,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Elke's Market Cafe</t>
+          <t>Carmine's - Time Square</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cafe</t>
+          <t>Italian restaurant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>105 N Greenville Ave #11, Allen, TX 75002, United States</t>
+          <t>200 W 44th St, New York, NY 10036, United States</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+1 214-495-0200</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kim@elkesmarketcafe.com</t>
-        </is>
-      </c>
+          <t>+12122213800</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://elkesmarketcafe.com</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100587381794389</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/elkesmarketcafe</t>
-        </is>
-      </c>
+          <t>https://carminesnyc.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -784,39 +768,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eggsquisite Cafe</t>
+          <t>The Modern</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breakfast restaurant</t>
+          <t>Restaurant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1314 W McDermott Dr #170, Allen, TX 75013, United States</t>
+          <t>9 W 53rd St, New York, NY 10019, United States</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+1 469-795-6056</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>info@theeggsquisitecafe.com</t>
-        </is>
-      </c>
+          <t>+12123331220</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://theeggsquisitecafe.com</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/Eggsquisiteallen/</t>
-        </is>
-      </c>
+          <t>https://themodernnyc.com</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>

--- a/google_maps_businesses.xlsx
+++ b/google_maps_businesses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,18 +433,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="37" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="42" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
@@ -530,17 +530,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pera Soho</t>
+          <t>Boucherie West Village</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mediterranean restaurant</t>
+          <t>Bistro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54 Thompson Street</t>
+          <t>99 7th Ave S</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -559,28 +559,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pera Soho</t>
+          <t>Boucherie West Village</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mediterranean restaurant</t>
+          <t>French restaurant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>54 Thompson Street, Broome St, New York, NY 10012, United States</t>
+          <t>99 7th Ave S, New York, NY 10014, United States</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+12128786305</t>
+          <t>+12128371616</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://pera-soho.com</t>
+          <t>https://boucherieus.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -596,48 +596,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lagos TSQ</t>
+          <t>The Modern</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>African restaurant</t>
+          <t>Restaurant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>727 7th Avenue, New York, NY 10019</t>
+          <t>9 W 53rd St, New York, NY 10019, United States</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2122810500</t>
+          <t>+12123331220</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://lagosnyc.com</t>
+          <t>https://themodernnyc.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/lagosnyc/</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://images.getbento.com/accounts/7205f4577fce084171c71ca7a4b9c2ea/media/images/42635LagosLogo.png?w=1200&amp;fit=fill&amp;auto=compress,format&amp;cs=origin&amp;h=600&amp;bg=000&amp;pad=100</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lagosnyc?lang=en</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -645,48 +633,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lagos TSQ</t>
+          <t>Gramercy Tavern</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>African restaurant</t>
+          <t>Restaurant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>727 7th Ave, New York, NY 10019, United States</t>
+          <t>42 E 20th St, New York, NY 10003, United States</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+12122810500</t>
+          <t>+12124770777</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://lagosnyc.com</t>
+          <t>https://gramercytavern.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/lagosnyc/</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://images.getbento.com/accounts/7205f4577fce084171c71ca7a4b9c2ea/media/images/42635LagosLogo.png?w=1200&amp;fit=fill&amp;auto=compress,format&amp;cs=origin&amp;h=600&amp;bg=000&amp;pad=100</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lagosnyc?lang=en</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -694,28 +670,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boucherie Union Square</t>
+          <t>Manhatta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>French restaurant</t>
+          <t>Restaurant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>225 Park Ave S, New York, NY 10003, United States</t>
+          <t>28 Liberty St 60th floor, New York, NY 10005, United States</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+12123530200</t>
+          <t>+12122305788</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://boucherieus.com</t>
+          <t>https://manhattarestaurant.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -768,7 +744,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Modern</t>
+          <t>Upland</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -778,18 +754,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9 W 53rd St, New York, NY 10019, United States</t>
+          <t>345 Park Ave S, New York, NY 10010, United States</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+12123331220</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>+12126861006</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uplandnyc.events@starr-restaurant.com</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://themodernnyc.com</t>
+          <t>https://uplandnyc.com</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -802,6 +782,43 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Piccola Cucina Osteria Siciliana</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Italian restaurant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>196 Spring St, New York, NY 10012, United States</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+16464787488</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://piccolacucinagroup.com</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
